--- a/truth_table_starter.xlsx
+++ b/truth_table_starter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidnathanson/Documents/College/Classes/Sophomore/Fall/CMSC301/Project/Checkpoint 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangyiming/Desktop/CMSC301Codes/Project_Checkpoint/Checkpoint2/cpu-processor-cmsc301/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5760DB6F-7745-D64C-B424-6A0757FCCC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B79A76-3EC7-114B-94B8-E8194D49A428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="22140" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="780" windowWidth="22140" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="65">
   <si>
     <t>instr</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>1001</t>
+  </si>
+  <si>
+    <t>1100</t>
   </si>
 </sst>
 </file>
@@ -263,7 +266,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +276,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -337,14 +346,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -363,6 +366,15 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -672,8 +684,8 @@
   </sheetPr>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="172" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -732,579 +744,579 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="D2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="13" t="s">
+      <c r="I2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="19" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="D3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="13" t="s">
+      <c r="I3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="13" t="s">
+      <c r="J4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="19" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="D5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="13" t="s">
+      <c r="I5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="19" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="D6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="13" t="s">
+      <c r="I6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="19" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="C7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="13" t="s">
+      <c r="J7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="C8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="13" t="s">
+      <c r="J8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="19" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="11" t="s">
+      <c r="C9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="13" t="s">
+      <c r="I9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="11">
+        <v>1</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="11">
+        <v>1</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="M9" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="M11" s="21" t="s">
+      <c r="M11" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="21" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="19" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="21" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="21" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="19" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="21" t="s">
-        <v>61</v>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="21" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="21" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="21" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="21" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="21" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="19" t="s">
         <v>62</v>
       </c>
     </row>

--- a/truth_table_starter.xlsx
+++ b/truth_table_starter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11003"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangyiming/Desktop/CMSC301Codes/Project_Checkpoint/Checkpoint2/cpu-processor-cmsc301/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidnathanson/Documents/College/Classes/Sophomore/Fall/CMSC301/Project/Checkpoint 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B79A76-3EC7-114B-94B8-E8194D49A428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A07F12D-16C9-3C42-ADEF-8F383C072040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="780" windowWidth="22140" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="81">
   <si>
     <t>instr</t>
   </si>
@@ -228,6 +228,54 @@
   </si>
   <si>
     <t>1100</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>nor</t>
+  </si>
+  <si>
+    <t>xor</t>
+  </si>
+  <si>
+    <t>andi</t>
+  </si>
+  <si>
+    <t>ori</t>
+  </si>
+  <si>
+    <t>xori</t>
+  </si>
+  <si>
+    <t>lui</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001101</t>
+  </si>
+  <si>
+    <t>001110</t>
+  </si>
+  <si>
+    <t>001111</t>
+  </si>
+  <si>
+    <t>100100</t>
+  </si>
+  <si>
+    <t>100101</t>
+  </si>
+  <si>
+    <t>100111</t>
+  </si>
+  <si>
+    <t>100110</t>
   </si>
 </sst>
 </file>
@@ -238,7 +286,7 @@
     <numFmt numFmtId="164" formatCode="000000"/>
     <numFmt numFmtId="165" formatCode="0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,8 +313,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,6 +337,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -368,13 +429,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -682,10 +749,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="172" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -744,7 +811,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -785,7 +852,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -826,7 +893,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -838,11 +905,11 @@
       <c r="D4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
       <c r="H4" s="11" t="s">
         <v>14</v>
       </c>
@@ -863,7 +930,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -904,7 +971,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="20" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -945,7 +1012,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -986,7 +1053,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1027,7 +1094,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -1068,7 +1135,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1109,7 +1176,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -1150,209 +1217,407 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="16"/>
+      <c r="A12" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
       <c r="M12" s="19" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="16"/>
+      <c r="A13" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
       <c r="M13" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="16"/>
+      <c r="A14" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
       <c r="M14" s="19" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="16"/>
+      <c r="A15" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
       <c r="M15" s="19" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="16"/>
+      <c r="A16" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
       <c r="M16" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="16"/>
+      <c r="A17" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
       <c r="M17" s="19" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="16"/>
+      <c r="A18" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
       <c r="M18" s="19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="16"/>
+      <c r="A19" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
       <c r="M19" s="19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="19" t="s">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="24" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="6"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="6"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="6"/>
-      <c r="F27"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="6"/>
-      <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="6"/>
@@ -1362,9 +1627,47 @@
       <c r="B30" s="6"/>
       <c r="G30" s="6"/>
     </row>
+    <row r="31" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="6"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="6"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="6"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="6"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="6"/>
+      <c r="F35"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="6"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="6"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="6"/>
+      <c r="G38" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/truth_table_starter.xlsx
+++ b/truth_table_starter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidnathanson/Documents/College/Classes/Sophomore/Fall/CMSC301/Project/Checkpoint 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A07F12D-16C9-3C42-ADEF-8F383C072040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B260B93-53BF-6743-BF7E-1D3936D824E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="82">
   <si>
     <t>instr</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>100110</t>
+  </si>
+  <si>
+    <t>1101</t>
   </si>
 </sst>
 </file>
@@ -321,7 +324,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,12 +334,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -429,9 +426,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -441,7 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -751,8 +745,8 @@
   </sheetPr>
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -811,7 +805,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -852,7 +846,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -893,7 +887,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -905,11 +899,11 @@
       <c r="D4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="11" t="s">
         <v>14</v>
       </c>
@@ -917,7 +911,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>40</v>
@@ -930,7 +924,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -971,7 +965,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="22" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -1012,7 +1006,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="22" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -1042,8 +1036,8 @@
       <c r="J7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="11" t="s">
-        <v>40</v>
+      <c r="K7" s="11">
+        <v>1</v>
       </c>
       <c r="L7" s="11" t="s">
         <v>41</v>
@@ -1053,7 +1047,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1083,8 +1077,8 @@
       <c r="J8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="11" t="s">
-        <v>40</v>
+      <c r="K8" s="11">
+        <v>1</v>
       </c>
       <c r="L8" s="11" t="s">
         <v>41</v>
@@ -1094,7 +1088,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="22" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -1135,7 +1129,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="22" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1176,7 +1170,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="22" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -1217,7 +1211,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>65</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1238,17 +1232,27 @@
       <c r="G12" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
+      <c r="H12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="11">
+        <v>0</v>
+      </c>
       <c r="M12" s="19" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>66</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -1269,17 +1273,27 @@
       <c r="G13" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
+      <c r="H13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
       <c r="M13" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>67</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -1300,17 +1314,27 @@
       <c r="G14" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
+      <c r="H14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0</v>
+      </c>
       <c r="M14" s="19" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>68</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -1331,17 +1355,27 @@
       <c r="G15" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
+      <c r="H15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0</v>
+      </c>
       <c r="M15" s="19" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>69</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -1353,22 +1387,32 @@
       <c r="D16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="11">
+        <v>1</v>
+      </c>
+      <c r="L16" s="11">
+        <v>1</v>
+      </c>
       <c r="M16" s="19" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>70</v>
       </c>
       <c r="B17" s="19" t="s">
@@ -1380,22 +1424,32 @@
       <c r="D17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="11">
+        <v>1</v>
+      </c>
+      <c r="L17" s="11">
+        <v>1</v>
+      </c>
       <c r="M17" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>71</v>
       </c>
       <c r="B18" s="19" t="s">
@@ -1407,22 +1461,32 @@
       <c r="D18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="11">
+        <v>1</v>
+      </c>
+      <c r="L18" s="11">
+        <v>1</v>
+      </c>
       <c r="M18" s="19" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>72</v>
       </c>
       <c r="B19" s="19" t="s">
@@ -1434,18 +1498,28 @@
       <c r="D19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="11">
+        <v>1</v>
+      </c>
+      <c r="L19" s="11">
+        <v>1</v>
+      </c>
       <c r="M19" s="19" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1463,7 +1537,7 @@
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
       <c r="L20" s="16"/>
-      <c r="M20" s="24" t="s">
+      <c r="M20" s="23" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1482,7 +1556,7 @@
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
       <c r="L21" s="16"/>
-      <c r="M21" s="24" t="s">
+      <c r="M21" s="23" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1501,7 +1575,7 @@
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
       <c r="L22" s="16"/>
-      <c r="M22" s="24" t="s">
+      <c r="M22" s="23" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1520,7 +1594,7 @@
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
       <c r="L23" s="16"/>
-      <c r="M23" s="24" t="s">
+      <c r="M23" s="23" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1539,7 +1613,7 @@
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
       <c r="L24" s="16"/>
-      <c r="M24" s="24" t="s">
+      <c r="M24" s="23" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1558,7 +1632,7 @@
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
       <c r="L25" s="16"/>
-      <c r="M25" s="24" t="s">
+      <c r="M25" s="23" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1577,7 +1651,7 @@
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
       <c r="L26" s="16"/>
-      <c r="M26" s="24" t="s">
+      <c r="M26" s="23" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1596,7 +1670,7 @@
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
       <c r="L27" s="16"/>
-      <c r="M27" s="24" t="s">
+      <c r="M27" s="23" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1615,7 +1689,7 @@
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
-      <c r="M28" s="24" t="s">
+      <c r="M28" s="23" t="s">
         <v>62</v>
       </c>
     </row>
